--- a/code/output/class_area_values.xlsx
+++ b/code/output/class_area_values.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Wetland</t>
+          <t>Herbaceous_wetland</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Tree_cover</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Shrub</t>
+          <t>Shrubland</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,77 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Build</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Dam &amp; tanki</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Salina</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Other wetland</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Cactus</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Deciduous</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Quarry</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Dedgraded</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Sand coast</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Rock coast</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Rock formation</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Dead mangrove</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Road</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Building</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Sport field</t>
+          <t>Build_environment</t>
         </is>
       </c>
     </row>
@@ -564,48 +494,6 @@
       <c r="G2" t="n">
         <v>26.23</v>
       </c>
-      <c r="H2" t="n">
-        <v>12</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="K2" t="n">
-        <v>36.03</v>
-      </c>
-      <c r="L2" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8.49</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S2" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="T2" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="U2" t="n">
-        <v>3.51</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -631,48 +519,6 @@
       <c r="G3" t="n">
         <v>38.42</v>
       </c>
-      <c r="H3" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K3" t="n">
-        <v>29.97</v>
-      </c>
-      <c r="L3" t="n">
-        <v>25.19</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="S3" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="T3" t="n">
-        <v>19.45</v>
-      </c>
-      <c r="U3" t="n">
-        <v>8.300000000000001</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -698,48 +544,6 @@
       <c r="G4" t="n">
         <v>38.05</v>
       </c>
-      <c r="H4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21.24</v>
-      </c>
-      <c r="L4" t="n">
-        <v>34.05</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T4" t="n">
-        <v>25.95</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.11</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -765,48 +569,6 @@
       <c r="G5" t="n">
         <v>30.32</v>
       </c>
-      <c r="H5" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K5" t="n">
-        <v>28.21</v>
-      </c>
-      <c r="L5" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="S5" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="T5" t="n">
-        <v>18.94</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.44</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -832,48 +594,6 @@
       <c r="G6" t="n">
         <v>32.31</v>
       </c>
-      <c r="H6" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>28.91</v>
-      </c>
-      <c r="L6" t="n">
-        <v>16.38</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S6" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="T6" t="n">
-        <v>24.28</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.7</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -899,48 +619,6 @@
       <c r="G7" t="n">
         <v>37.13</v>
       </c>
-      <c r="H7" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="K7" t="n">
-        <v>25.71</v>
-      </c>
-      <c r="L7" t="n">
-        <v>26.41</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="T7" t="n">
-        <v>29.99</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.62</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -966,48 +644,6 @@
       <c r="G8" t="n">
         <v>33.1</v>
       </c>
-      <c r="H8" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K8" t="n">
-        <v>37.71</v>
-      </c>
-      <c r="L8" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="S8" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T8" t="n">
-        <v>24.62</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.87</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1033,48 +669,6 @@
       <c r="G9" t="n">
         <v>25.65</v>
       </c>
-      <c r="H9" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="K9" t="n">
-        <v>31.14</v>
-      </c>
-      <c r="L9" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="N9" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="T9" t="n">
-        <v>17.78</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.26</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1100,48 +694,6 @@
       <c r="G10" t="n">
         <v>26.15</v>
       </c>
-      <c r="H10" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K10" t="n">
-        <v>37.29</v>
-      </c>
-      <c r="L10" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S10" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="T10" t="n">
-        <v>16.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.25</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1167,48 +719,6 @@
       <c r="G11" t="n">
         <v>39.44</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="K11" t="n">
-        <v>23.66</v>
-      </c>
-      <c r="L11" t="n">
-        <v>17.27</v>
-      </c>
-      <c r="M11" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="S11" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="T11" t="n">
-        <v>29.61</v>
-      </c>
-      <c r="U11" t="n">
-        <v>3.76</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1234,48 +744,6 @@
       <c r="G12" t="n">
         <v>34.33</v>
       </c>
-      <c r="H12" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="K12" t="n">
-        <v>38.85</v>
-      </c>
-      <c r="L12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="N12" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="S12" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="T12" t="n">
-        <v>26.97</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.29</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1301,48 +769,6 @@
       <c r="G13" t="n">
         <v>35.79</v>
       </c>
-      <c r="H13" t="n">
-        <v>16.94</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="K13" t="n">
-        <v>33.19</v>
-      </c>
-      <c r="L13" t="n">
-        <v>14.93</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="S13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>26.95</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.43</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1368,48 +794,6 @@
       <c r="G14" t="n">
         <v>36.42</v>
       </c>
-      <c r="H14" t="n">
-        <v>13.29</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="K14" t="n">
-        <v>27.91</v>
-      </c>
-      <c r="L14" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="S14" t="n">
-        <v>8</v>
-      </c>
-      <c r="T14" t="n">
-        <v>26.43</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.99</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1435,48 +819,6 @@
       <c r="G15" t="n">
         <v>38.3</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="K15" t="n">
-        <v>31.75</v>
-      </c>
-      <c r="L15" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="N15" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="T15" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.68</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1502,48 +844,6 @@
       <c r="G16" t="n">
         <v>32.69</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="K16" t="n">
-        <v>28.55</v>
-      </c>
-      <c r="L16" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="N16" t="n">
-        <v>17.03</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="T16" t="n">
-        <v>26.78</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.88</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1569,48 +869,6 @@
       <c r="G17" t="n">
         <v>25.74</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="K17" t="n">
-        <v>33.97</v>
-      </c>
-      <c r="L17" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="N17" t="n">
-        <v>20.66</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="T17" t="n">
-        <v>17.74</v>
-      </c>
-      <c r="U17" t="n">
-        <v>3.1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1635,48 +893,6 @@
       </c>
       <c r="G18" t="n">
         <v>30.47</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K18" t="n">
-        <v>32.94</v>
-      </c>
-      <c r="L18" t="n">
-        <v>15</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="N18" t="n">
-        <v>18.91</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P18" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="T18" t="n">
-        <v>20.53</v>
-      </c>
-      <c r="U18" t="n">
-        <v>5.63</v>
       </c>
     </row>
   </sheetData>
